--- a/teamscard.xlsx
+++ b/teamscard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gehealthcare-my.sharepoint.com/personal/212399606_gehealthcare_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gehealthcare-my.sharepoint.com/personal/212399606_gehealthcare_com/Documents/Documents/GitHub/HandballTeams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{611DBAA2-AE8E-4973-B427-801F15E9B2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{490ED098-2E60-43F5-A02B-4662178D2389}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{611DBAA2-AE8E-4973-B427-801F15E9B2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7094572F-3B07-4090-BF22-6E910AC1B039}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="555" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{722E63CD-2B7C-4F85-8E82-76E8047BA66D}"/>
+    <workbookView xWindow="30630" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{722E63CD-2B7C-4F85-8E82-76E8047BA66D}"/>
   </bookViews>
   <sheets>
     <sheet name="U13" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>physique</t>
   </si>
@@ -66,15 +66,6 @@
   </si>
   <si>
     <t>vitesse</t>
-  </si>
-  <si>
-    <t>poste 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poste 2</t>
-  </si>
-  <si>
-    <t>poste 3</t>
   </si>
   <si>
     <t>Benoit</t>
@@ -202,10 +193,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4594D1-ECB9-484F-9473-0A5DE37E91E1}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,135 +549,135 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +690,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,135 +724,135 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +865,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,129 +899,129 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1046,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DFDBB-E7D2-479C-97A5-31DE5C0D890D}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,164 +1068,164 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1.5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>1.5</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/teamscard.xlsx
+++ b/teamscard.xlsx
@@ -8,27 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gehealthcare-my.sharepoint.com/personal/212399606_gehealthcare_com/Documents/Documents/GitHub/HandballTeams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_3F604DB3FD9D3CB54CC396AEBF96F19CFDDABFF3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C380197-5A2F-48CC-A0B7-1A775B103CF4}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_2D55E10BE89A5E85EEB39438C1C54F2AFBFA6A83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C51311-386E-480A-ACF8-19C362789A0F}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U13" sheetId="1" r:id="rId1"/>
     <sheet name="U15" sheetId="2" r:id="rId2"/>
     <sheet name="U18" sheetId="3" r:id="rId3"/>
-    <sheet name="O16" sheetId="4" r:id="rId4"/>
+    <sheet name="SM" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'U15'!$A$1:$M$33</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="BDE6omy/RssPuM7zJOK5EW6LNf6F4rOYVg+CTWVZAz4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="tbV6/dz39Z9+04T96YfgbDSnZa/Lm336vK4siMrzDio="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
   <si>
     <t>nom</t>
   </si>
@@ -105,54 +108,240 @@
     <t>gk</t>
   </si>
   <si>
+    <t>GILBERT</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>Valou</t>
+  </si>
+  <si>
+    <t>COACH</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>BONE</t>
+  </si>
+  <si>
+    <t>Corentin</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>CHAILLOU</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>CHAUTARD</t>
+  </si>
+  <si>
+    <t>Grégory</t>
+  </si>
+  <si>
+    <t>ALD</t>
+  </si>
+  <si>
+    <t>ESPRIT</t>
+  </si>
+  <si>
+    <t>Juliann</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>ARD</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>FONTENEAUD</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>HAQUET LARROUY</t>
+  </si>
+  <si>
+    <t>Alban</t>
+  </si>
+  <si>
+    <t>JARNO</t>
+  </si>
+  <si>
+    <t>Waly</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>LECONTE</t>
+  </si>
+  <si>
+    <t>Gaëtan</t>
+  </si>
+  <si>
+    <t>LEFEVRE</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>MAHMOUDI</t>
+  </si>
+  <si>
+    <t>Zaid</t>
+  </si>
+  <si>
+    <t>MARZOUK</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>ROSEC</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>VINCIENNE</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>WENDLING</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>LANGLOIS</t>
+  </si>
+  <si>
+    <t>BONNAIRE</t>
+  </si>
+  <si>
+    <t>Léandre</t>
+  </si>
+  <si>
+    <t>CHARBONNIER</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>CUILLERAT MICHEL</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>DEHLINGER</t>
+  </si>
+  <si>
+    <t>DEUFFIC</t>
+  </si>
+  <si>
+    <t>Eloi</t>
+  </si>
+  <si>
+    <t>DINH</t>
+  </si>
+  <si>
+    <t>FAURE</t>
+  </si>
+  <si>
+    <t>Eliott</t>
+  </si>
+  <si>
+    <t>FOSSION</t>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>KHAYAT</t>
+  </si>
+  <si>
+    <t>Yassine</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>MOIZAN</t>
+  </si>
+  <si>
+    <t>Léo</t>
+  </si>
+  <si>
+    <t>YAHYA</t>
+  </si>
+  <si>
+    <t>Naïl</t>
+  </si>
+  <si>
+    <t>AUCLAIR</t>
+  </si>
+  <si>
+    <t>Zacharie</t>
+  </si>
+  <si>
+    <t>MESTAYER</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>DEMOLLIENS</t>
+  </si>
+  <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>QUINIOU</t>
+  </si>
+  <si>
+    <t>Mathys</t>
+  </si>
+  <si>
+    <t>Cuquemelle</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Germain</t>
+  </si>
+  <si>
+    <t>Sylvain</t>
+  </si>
+  <si>
+    <t>Huon</t>
+  </si>
+  <si>
     <t>Gilbert</t>
   </si>
   <si>
-    <t>Valentin</t>
-  </si>
-  <si>
-    <t>Valou</t>
-  </si>
-  <si>
-    <t>Corentin</t>
-  </si>
-  <si>
-    <t>Cuquemelle</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Germain</t>
-  </si>
-  <si>
-    <t>Sylvain</t>
-  </si>
-  <si>
-    <t>Huon</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>ALD</t>
-  </si>
-  <si>
-    <t>ARD</t>
-  </si>
-  <si>
     <t>Andreas</t>
   </si>
   <si>
     <t>DD</t>
   </si>
   <si>
-    <t>ALG</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>Clement</t>
   </si>
   <si>
@@ -165,9 +354,6 @@
     <t>Ebruv</t>
   </si>
   <si>
-    <t>ARG</t>
-  </si>
-  <si>
     <t>Meheust</t>
   </si>
   <si>
@@ -270,9 +456,6 @@
     <t>Simon</t>
   </si>
   <si>
-    <t>GK</t>
-  </si>
-  <si>
     <t>Ferreira</t>
   </si>
   <si>
@@ -282,9 +465,6 @@
     <t xml:space="preserve">Provost </t>
   </si>
   <si>
-    <t>Eliott</t>
-  </si>
-  <si>
     <t>Signol</t>
   </si>
   <si>
@@ -300,6 +480,9 @@
     <t>Ryad</t>
   </si>
   <si>
+    <t>AlG</t>
+  </si>
+  <si>
     <t>Julien</t>
   </si>
   <si>
@@ -307,13 +490,19 @@
   </si>
   <si>
     <t>Joce</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Gaspar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,16 +515,70 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -343,15 +586,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,6 +653,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,7 +946,7 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1">
@@ -1739,218 +2029,1243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>100</v>
       </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1">
-        <v>70</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="E2" s="9">
+        <v>100</v>
+      </c>
+      <c r="F2" s="9">
+        <v>100</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100</v>
+      </c>
+      <c r="H2" s="9">
+        <v>100</v>
+      </c>
+      <c r="I2" s="9">
+        <v>100</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9">
+        <v>76</v>
+      </c>
+      <c r="E3" s="9">
+        <v>68</v>
+      </c>
+      <c r="F3" s="9">
+        <v>60</v>
+      </c>
+      <c r="G3" s="9">
+        <v>75</v>
+      </c>
+      <c r="H3" s="9">
+        <v>78</v>
+      </c>
+      <c r="I3" s="9">
+        <v>83</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1">
-        <v>70</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="K3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <v>90</v>
+      </c>
+      <c r="E4" s="9">
+        <v>80</v>
+      </c>
+      <c r="F4" s="9">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
+      <c r="G4" s="9">
+        <v>75</v>
+      </c>
+      <c r="H4" s="9">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9">
         <v>70</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="J4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9">
+        <v>80</v>
+      </c>
+      <c r="F5" s="9">
+        <v>60</v>
+      </c>
+      <c r="G5" s="9">
+        <v>85</v>
+      </c>
+      <c r="H5" s="9">
+        <v>90</v>
+      </c>
+      <c r="I5" s="9">
+        <v>85</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <v>90</v>
+      </c>
+      <c r="E6" s="9">
+        <v>75</v>
+      </c>
+      <c r="F6" s="9">
+        <v>90</v>
+      </c>
+      <c r="G6" s="9">
+        <v>65</v>
+      </c>
+      <c r="H6" s="9">
+        <v>80</v>
+      </c>
+      <c r="I6" s="9">
+        <v>80</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>75</v>
+      </c>
+      <c r="E7" s="9">
+        <v>80</v>
+      </c>
+      <c r="F7" s="9">
+        <v>65</v>
+      </c>
+      <c r="G7" s="9">
+        <v>85</v>
+      </c>
+      <c r="H7" s="9">
+        <v>90</v>
+      </c>
+      <c r="I7" s="9">
+        <v>80</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>75</v>
+      </c>
+      <c r="E8" s="9">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9">
+        <v>55</v>
+      </c>
+      <c r="G8" s="9">
+        <v>70</v>
+      </c>
+      <c r="H8" s="9">
+        <v>75</v>
+      </c>
+      <c r="I8" s="9">
+        <v>80</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <v>75</v>
+      </c>
+      <c r="E9" s="9">
+        <v>90</v>
+      </c>
+      <c r="F9" s="9">
+        <v>80</v>
+      </c>
+      <c r="G9" s="9">
+        <v>90</v>
+      </c>
+      <c r="H9" s="9">
+        <v>95</v>
+      </c>
+      <c r="I9" s="9">
+        <v>95</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1">
+      <c r="K9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <v>81</v>
+      </c>
+      <c r="E10" s="9">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9">
+        <v>66</v>
+      </c>
+      <c r="G10" s="9">
+        <v>68</v>
+      </c>
+      <c r="H10" s="9">
+        <v>72</v>
+      </c>
+      <c r="I10" s="9">
+        <v>78</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <v>65</v>
+      </c>
+      <c r="E11" s="9">
+        <v>70</v>
+      </c>
+      <c r="F11" s="9">
+        <v>70</v>
+      </c>
+      <c r="G11" s="9">
+        <v>80</v>
+      </c>
+      <c r="H11" s="9">
+        <v>80</v>
+      </c>
+      <c r="I11" s="9">
+        <v>75</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>68</v>
+      </c>
+      <c r="E12" s="9">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9">
+        <v>69</v>
+      </c>
+      <c r="G12" s="9">
+        <v>56</v>
+      </c>
+      <c r="H12" s="9">
+        <v>65</v>
+      </c>
+      <c r="I12" s="9">
+        <v>63</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>90</v>
+      </c>
+      <c r="E14" s="9">
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9">
+        <v>70</v>
+      </c>
+      <c r="H14" s="9">
+        <v>80</v>
+      </c>
+      <c r="I14" s="9">
+        <v>70</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>58</v>
+      </c>
+      <c r="E15" s="9">
+        <v>60</v>
+      </c>
+      <c r="F15" s="9">
+        <v>66</v>
+      </c>
+      <c r="G15" s="9">
+        <v>65</v>
+      </c>
+      <c r="H15" s="9">
+        <v>62</v>
+      </c>
+      <c r="I15" s="9">
+        <v>60</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <v>90</v>
+      </c>
+      <c r="E16" s="9">
+        <v>74</v>
+      </c>
+      <c r="F16" s="9">
+        <v>84</v>
+      </c>
+      <c r="G16" s="9">
+        <v>82</v>
+      </c>
+      <c r="H16" s="9">
+        <v>57</v>
+      </c>
+      <c r="I16" s="9">
+        <v>86</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <v>90</v>
+      </c>
+      <c r="E17" s="9">
+        <v>70</v>
+      </c>
+      <c r="F17" s="9">
+        <v>60</v>
+      </c>
+      <c r="G17" s="9">
+        <v>70</v>
+      </c>
+      <c r="H17" s="9">
+        <v>75</v>
+      </c>
+      <c r="I17" s="9">
+        <v>80</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9">
+        <v>74</v>
+      </c>
+      <c r="F18" s="9">
+        <v>68</v>
+      </c>
+      <c r="G18" s="9">
+        <v>79</v>
+      </c>
+      <c r="H18" s="9">
+        <v>83</v>
+      </c>
+      <c r="I18" s="9">
+        <v>83</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>80</v>
+      </c>
+      <c r="E19" s="9">
+        <v>70</v>
+      </c>
+      <c r="F19" s="9">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9">
+        <v>70</v>
+      </c>
+      <c r="H19" s="9">
+        <v>75</v>
+      </c>
+      <c r="I19" s="9">
+        <v>80</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
+        <v>75</v>
+      </c>
+      <c r="E20" s="9">
+        <v>64</v>
+      </c>
+      <c r="F20" s="9">
+        <v>63</v>
+      </c>
+      <c r="G20" s="9">
+        <v>70</v>
+      </c>
+      <c r="H20" s="9">
+        <v>83</v>
+      </c>
+      <c r="I20" s="9">
+        <v>73</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9">
+        <v>77</v>
+      </c>
+      <c r="E21" s="9">
+        <v>78</v>
+      </c>
+      <c r="F21" s="9">
+        <v>79</v>
+      </c>
+      <c r="G21" s="9">
+        <v>75</v>
+      </c>
+      <c r="H21" s="9">
+        <v>82</v>
+      </c>
+      <c r="I21" s="9">
+        <v>79</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9">
+        <v>51</v>
+      </c>
+      <c r="E22" s="9">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9">
+        <v>48</v>
+      </c>
+      <c r="G22" s="9">
+        <v>66</v>
+      </c>
+      <c r="H22" s="9">
         <v>30</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I22" s="9">
+        <v>54</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
+        <v>64</v>
+      </c>
+      <c r="E23" s="9">
+        <v>63</v>
+      </c>
+      <c r="F23" s="9">
+        <v>68</v>
+      </c>
+      <c r="G23" s="9">
+        <v>70</v>
+      </c>
+      <c r="H23" s="9">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9">
+        <v>78</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9">
+        <v>78</v>
+      </c>
+      <c r="E24" s="9">
+        <v>72</v>
+      </c>
+      <c r="F24" s="9">
+        <v>64</v>
+      </c>
+      <c r="G24" s="9">
+        <v>68</v>
+      </c>
+      <c r="H24" s="9">
+        <v>84</v>
+      </c>
+      <c r="I24" s="9">
+        <v>79</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
+        <v>58</v>
+      </c>
+      <c r="E25" s="9">
+        <v>56</v>
+      </c>
+      <c r="F25" s="9">
         <v>50</v>
       </c>
-      <c r="H5" s="1">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="G25" s="9">
+        <v>56</v>
+      </c>
+      <c r="H25" s="9">
+        <v>67</v>
+      </c>
+      <c r="I25" s="9">
+        <v>63</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9">
         <v>70</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="F26" s="9">
+        <v>78</v>
+      </c>
+      <c r="G26" s="9">
+        <v>73</v>
+      </c>
+      <c r="H26" s="9">
+        <v>79</v>
+      </c>
+      <c r="I26" s="9">
+        <v>83</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <v>76</v>
+      </c>
+      <c r="E28" s="9">
+        <v>70</v>
+      </c>
+      <c r="F28" s="9">
+        <v>82</v>
+      </c>
+      <c r="G28" s="9">
+        <v>74</v>
+      </c>
+      <c r="H28" s="9">
+        <v>77</v>
+      </c>
+      <c r="I28" s="9">
+        <v>81</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9">
+        <v>76</v>
+      </c>
+      <c r="E29" s="9">
+        <v>68</v>
+      </c>
+      <c r="F29" s="9">
+        <v>70</v>
+      </c>
+      <c r="G29" s="9">
+        <v>69</v>
+      </c>
+      <c r="H29" s="9">
+        <v>71</v>
+      </c>
+      <c r="I29" s="9">
+        <v>58</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9">
+        <v>60</v>
+      </c>
+      <c r="E30" s="9">
+        <v>75</v>
+      </c>
+      <c r="F30" s="9">
+        <v>60</v>
+      </c>
+      <c r="G30" s="9">
+        <v>80</v>
+      </c>
+      <c r="H30" s="9">
+        <v>85</v>
+      </c>
+      <c r="I30" s="9">
+        <v>90</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9">
+        <v>80</v>
+      </c>
+      <c r="E31" s="9">
+        <v>70</v>
+      </c>
+      <c r="F31" s="9">
+        <v>60</v>
+      </c>
+      <c r="G31" s="9">
+        <v>75</v>
+      </c>
+      <c r="H31" s="9">
+        <v>75</v>
+      </c>
+      <c r="I31" s="9">
+        <v>80</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9">
+        <v>67</v>
+      </c>
+      <c r="E32" s="9">
+        <v>77</v>
+      </c>
+      <c r="F32" s="9">
+        <v>69</v>
+      </c>
+      <c r="G32" s="9">
+        <v>73</v>
+      </c>
+      <c r="H32" s="9">
+        <v>78</v>
+      </c>
+      <c r="I32" s="9">
+        <v>78</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9">
+        <v>83</v>
+      </c>
+      <c r="E33" s="9">
+        <v>76</v>
+      </c>
+      <c r="F33" s="9">
+        <v>85</v>
+      </c>
+      <c r="G33" s="9">
+        <v>77</v>
+      </c>
+      <c r="H33" s="9">
+        <v>53</v>
+      </c>
+      <c r="I33" s="9">
+        <v>65</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2903,7 +4218,9 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:M33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2913,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2923,52 +4240,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
+      <c r="A2" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -2999,43 +4316,46 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="A3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17">
         <v>100</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>50</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="17">
         <v>30</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="17">
         <v>50</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="17">
         <v>40</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="17">
         <v>70</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="1">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3056,59 +4376,60 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="A5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3128,60 +4449,61 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>39</v>
+      <c r="J6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="L7" s="18"/>
+      <c r="M7" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -3202,50 +4524,53 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="A9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3266,59 +4591,61 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="A11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3339,56 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="A13" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -3409,53 +4738,56 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="A15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -3476,53 +4808,56 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="A17" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -3543,56 +4878,59 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="A19" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
+      <c r="A20" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -3612,54 +4950,56 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>35</v>
+      <c r="J20" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="A21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>75</v>
+      <c r="A22" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -3680,53 +5020,55 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M22" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="A23" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>78</v>
+      <c r="A24" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -3747,50 +5089,53 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="M24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="A25" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>83</v>
+      <c r="A26" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -3811,50 +5156,52 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27">
+      <c r="A27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -3875,41 +5222,44 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="M28" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="A29" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19">
         <v>2</v>
       </c>
     </row>
@@ -4903,8 +6253,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4980,10 +6330,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -5015,7 +6365,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
